--- a/Base de données/Excel/SuperInsertCompetenceMasterKringebubuV2.xlsx
+++ b/Base de données/Excel/SuperInsertCompetenceMasterKringebubuV2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamfa1330387.CEGEPJONQUIERE\Desktop\PROJETS\gestion compt\bd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamfa1330387.CEGEPJONQUIERE\Documents\ProjetFinal\Base de données\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EnonceCompetence" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="371">
   <si>
     <t>enonceCompetence</t>
   </si>
@@ -35,16 +35,10 @@
     <t>codeCompetence</t>
   </si>
   <si>
-    <t>motClef</t>
-  </si>
-  <si>
     <t>obligatoire</t>
   </si>
   <si>
     <t>actif</t>
-  </si>
-  <si>
-    <t>commentaire</t>
   </si>
   <si>
     <t>contexteRealisation</t>
@@ -819,9 +813,6 @@
     <t>idCompetence</t>
   </si>
   <si>
-    <t>idProgramme</t>
-  </si>
-  <si>
     <t>idContexte</t>
   </si>
   <si>
@@ -1178,6 +1169,9 @@
   </si>
   <si>
     <t>Vérification minutieuse du document</t>
+  </si>
+  <si>
+    <t>idDevis</t>
   </si>
 </sst>
 </file>
@@ -1518,25 +1512,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="4.36328125" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
     <col min="7" max="7" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1551,24 +1545,21 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1576,59 +1567,59 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1636,19 +1627,19 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1656,19 +1647,19 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1676,19 +1667,19 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1696,19 +1687,19 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1716,19 +1707,19 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1736,19 +1727,19 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1756,19 +1747,19 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>260</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1776,19 +1767,19 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1796,17 +1787,14 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
@@ -1860,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1873,16 +1861,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1890,7 +1878,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1901,7 +1892,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1912,7 +1906,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1923,7 +1920,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1934,7 +1934,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1945,7 +1948,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1956,7 +1962,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1967,7 +1976,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1978,7 +1990,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1989,7 +2004,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -2000,7 +2018,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -2011,7 +2032,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -2022,7 +2046,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -2033,7 +2060,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2044,7 +2074,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -2055,7 +2088,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -2066,7 +2102,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2077,7 +2116,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -2088,7 +2130,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -2099,7 +2144,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -2110,7 +2158,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -2121,7 +2172,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -2132,7 +2186,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -2143,7 +2200,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -2154,7 +2214,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -2165,7 +2228,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2176,7 +2242,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -2187,7 +2256,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -2198,7 +2270,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -2209,7 +2284,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
       </c>
       <c r="D31">
         <v>8</v>
@@ -2220,7 +2298,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -2231,7 +2312,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
       </c>
       <c r="D33">
         <v>9</v>
@@ -2242,7 +2326,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
       </c>
       <c r="D34">
         <v>9</v>
@@ -2253,7 +2340,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -2264,7 +2354,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
       </c>
       <c r="D36">
         <v>10</v>
@@ -2275,7 +2368,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
       </c>
       <c r="D37">
         <v>10</v>
@@ -2286,7 +2382,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -2297,7 +2396,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
       </c>
       <c r="D39">
         <v>10</v>
@@ -2308,7 +2410,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
       </c>
       <c r="D40">
         <v>11</v>
@@ -2319,7 +2424,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
       </c>
       <c r="D41">
         <v>11</v>
@@ -2330,7 +2438,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
       </c>
       <c r="D42">
         <v>11</v>
@@ -2341,7 +2452,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
       </c>
       <c r="D43">
         <v>12</v>
@@ -2352,7 +2466,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
       </c>
       <c r="D44">
         <v>12</v>
@@ -2363,7 +2480,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
       </c>
       <c r="D45">
         <v>12</v>
@@ -2374,7 +2494,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
       </c>
       <c r="D46">
         <v>12</v>
@@ -2385,7 +2508,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
       </c>
       <c r="D47">
         <v>12</v>
@@ -2399,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2411,851 +2537,838 @@
     <col min="5" max="5" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23">
         <v>8</v>
       </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24">
         <v>9</v>
       </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="D25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="D26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="F28">
+      <c r="D28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="F29">
+      <c r="D29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="F30">
+      <c r="D30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="F31">
+      <c r="D31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="F32">
+      <c r="D32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="D33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
-      <c r="F34">
+      <c r="D34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="F35">
+      <c r="D35">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="F36">
+      <c r="D36">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="F37">
+      <c r="D37">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="F38">
+      <c r="D38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="F39">
+      <c r="D39">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="F40">
+      <c r="D40">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
-      <c r="F41">
+      <c r="D41">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="F42">
+      <c r="D42">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="F43">
+      <c r="D43">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="F44">
+      <c r="D44">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="D45">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="F46">
+      <c r="D46">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="D47">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
-      <c r="F48">
+      <c r="D48">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C49">
         <v>4</v>
       </c>
-      <c r="F49">
+      <c r="D49">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
-      <c r="F50">
+      <c r="D50">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="F51">
+      <c r="D51">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="F52">
+      <c r="D52">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C53" s="5">
         <v>3</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="5">
+        <v>11</v>
+      </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="5">
+        <v>12</v>
+      </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C55" s="5">
         <v>2</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="5">
+        <v>12</v>
+      </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C56" s="5">
         <v>3</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="5">
+        <v>12</v>
+      </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C57" s="5">
         <v>4</v>
       </c>
-      <c r="D57" s="5"/>
+      <c r="D57" s="5">
+        <v>12</v>
+      </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C58" s="5">
         <v>5</v>
       </c>
-      <c r="D58" s="5"/>
+      <c r="D58" s="5">
+        <v>12</v>
+      </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C59" s="5">
         <v>6</v>
       </c>
-      <c r="D59" s="5"/>
+      <c r="D59" s="5">
+        <v>12</v>
+      </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="5">
-        <v>12</v>
-      </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
@@ -3306,8 +3419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3316,3383 +3429,3363 @@
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="D13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="D14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="D15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="E16">
+      <c r="D16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="E17">
+      <c r="D17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="D18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="D19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="E20">
+      <c r="D20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="E21">
+      <c r="D21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="D22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="E24">
+      <c r="D24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="E25">
+      <c r="D25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="E26">
+      <c r="D26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="D27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="E28">
+      <c r="D28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="E29">
+      <c r="D29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="E30">
+      <c r="D30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="E31">
+      <c r="D31">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="E32">
+      <c r="D32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="E33">
+      <c r="D33">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="E34">
+      <c r="D34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="E35">
+      <c r="D35">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="E36">
+      <c r="D36">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="E37">
+      <c r="D37">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38">
         <v>5</v>
       </c>
-      <c r="E38">
+      <c r="D38">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C39">
         <v>6</v>
       </c>
-      <c r="E39">
+      <c r="D39">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
-      <c r="E40">
+      <c r="D40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
-      <c r="E41">
+      <c r="D41">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42">
         <v>9</v>
       </c>
-      <c r="E42">
+      <c r="D42">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="E43">
+      <c r="D43">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="E44">
+      <c r="D44">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="E45">
+      <c r="D45">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="E46">
+      <c r="D46">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
-      <c r="E47">
+      <c r="D47">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="E48">
+      <c r="D48">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
-      <c r="E49">
+      <c r="D49">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="E50">
+      <c r="D50">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
-      <c r="E51">
+      <c r="D51">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52">
         <v>5</v>
       </c>
-      <c r="E52">
+      <c r="D52">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53">
         <v>6</v>
       </c>
-      <c r="E53">
+      <c r="D53">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="E54">
+      <c r="D54">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
-      <c r="E55">
+      <c r="D55">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="E56">
+      <c r="D56">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="E57">
+      <c r="D57">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="E58">
+      <c r="D58">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="E59">
+      <c r="D59">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="E60">
+      <c r="D60">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C61">
         <v>6</v>
       </c>
-      <c r="E61">
+      <c r="D61">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="E62">
+      <c r="D62">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="D63">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
-      <c r="E64">
+      <c r="D64">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
-      <c r="E65">
+      <c r="D65">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="E66">
+      <c r="D66">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
-      <c r="E67">
+      <c r="D67">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
-      <c r="E68">
+      <c r="D68">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="E69">
+      <c r="D69">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
-      <c r="E70">
+      <c r="D70">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
-      <c r="E71">
+      <c r="D71">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="E72">
+      <c r="D72">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
-      <c r="E73">
+      <c r="D73">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C74">
         <v>3</v>
       </c>
-      <c r="E74">
+      <c r="D74">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C75">
         <v>4</v>
       </c>
-      <c r="E75">
+      <c r="D75">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C76">
         <v>5</v>
       </c>
-      <c r="E76">
+      <c r="D76">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="E77">
+      <c r="D77">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
-      <c r="E78">
+      <c r="D78">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
-      <c r="E79">
+      <c r="D79">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="E80">
+      <c r="D80">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
-      <c r="E81">
+      <c r="D81">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
-      <c r="E82">
+      <c r="D82">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
-      <c r="E83">
+      <c r="D83">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C84">
         <v>5</v>
       </c>
-      <c r="E84">
+      <c r="D84">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="E85">
+      <c r="D85">
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
-      <c r="E86">
+      <c r="D86">
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
-      <c r="E87">
+      <c r="D87">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C88">
         <v>4</v>
       </c>
-      <c r="E88">
+      <c r="D88">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
-      <c r="E89">
+      <c r="D89">
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
-      <c r="E90">
+      <c r="D90">
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
-      <c r="E91">
+      <c r="D91">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="E92">
+      <c r="D92">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
-      <c r="E93">
+      <c r="D93">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
-      <c r="E94">
+      <c r="D94">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="E95">
+      <c r="D95">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
-      <c r="E96">
+      <c r="D96">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
-      <c r="E97">
+      <c r="D97">
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
-      <c r="E98">
+      <c r="D98">
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
-      <c r="E99">
+      <c r="D99">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
-      <c r="E100">
+      <c r="D100">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C101">
         <v>4</v>
       </c>
-      <c r="E101">
+      <c r="D101">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
-      <c r="E102">
+      <c r="D102">
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
-      <c r="E103">
+      <c r="D103">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
-      <c r="E104">
+      <c r="D104">
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C105">
         <v>4</v>
       </c>
-      <c r="E105">
+      <c r="D105">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C106">
         <v>5</v>
       </c>
-      <c r="E106">
+      <c r="D106">
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C107">
         <v>6</v>
       </c>
-      <c r="E107">
+      <c r="D107">
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
-      <c r="E108">
+      <c r="D108">
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
-      <c r="E109">
+      <c r="D109">
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
-      <c r="E110">
+      <c r="D110">
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
-      <c r="E111">
+      <c r="D111">
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
-      <c r="E112">
+      <c r="D112">
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
-      <c r="E113">
+      <c r="D113">
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C114">
         <v>4</v>
       </c>
-      <c r="E114">
+      <c r="D114">
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
-      <c r="E115">
+      <c r="D115">
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
-      <c r="E116">
+      <c r="D116">
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C117">
         <v>3</v>
       </c>
-      <c r="E117">
+      <c r="D117">
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C118">
         <v>4</v>
       </c>
-      <c r="E118">
+      <c r="D118">
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C119">
         <v>5</v>
       </c>
-      <c r="E119">
+      <c r="D119">
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C120">
         <v>6</v>
       </c>
-      <c r="E120">
+      <c r="D120">
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
-      <c r="E121">
+      <c r="D121">
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
-      <c r="E122">
+      <c r="D122">
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
-      <c r="E123">
+      <c r="D123">
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
-      <c r="E124">
+      <c r="D124">
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
-      <c r="E125">
+      <c r="D125">
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
-      <c r="E126">
+      <c r="D126">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C127">
         <v>4</v>
       </c>
-      <c r="E127">
+      <c r="D127">
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C128">
         <v>5</v>
       </c>
-      <c r="E128">
+      <c r="D128">
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
-      <c r="E129">
+      <c r="D129">
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
-      <c r="E130">
+      <c r="D130">
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C131">
         <v>3</v>
       </c>
-      <c r="E131">
+      <c r="D131">
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C132">
         <v>4</v>
       </c>
-      <c r="E132">
+      <c r="D132">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
-      <c r="E133">
+      <c r="D133">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
-      <c r="E134">
+      <c r="D134">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
-      <c r="E135">
+      <c r="D135">
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C136">
         <v>3</v>
       </c>
-      <c r="E136">
+      <c r="D136">
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
-      <c r="E137">
+      <c r="D137">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
-      <c r="E138">
+      <c r="D138">
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C139">
         <v>3</v>
       </c>
-      <c r="E139">
+      <c r="D139">
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
-      <c r="E140">
+      <c r="D140">
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
-      <c r="E141">
+      <c r="D141">
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C142">
         <v>3</v>
       </c>
-      <c r="E142">
+      <c r="D142">
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C143">
         <v>4</v>
       </c>
-      <c r="E143">
+      <c r="D143">
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
-      <c r="E144">
+      <c r="D144">
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
-      <c r="E145">
+      <c r="D145">
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
-      <c r="E146">
+      <c r="D146">
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C147">
         <v>3</v>
       </c>
-      <c r="E147">
+      <c r="D147">
         <v>38</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C148">
         <v>4</v>
       </c>
-      <c r="E148">
+      <c r="D148">
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C149">
         <v>5</v>
       </c>
-      <c r="E149">
+      <c r="D149">
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C150">
         <v>6</v>
       </c>
-      <c r="E150">
+      <c r="D150">
         <v>38</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
-      <c r="E151">
+      <c r="D151">
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
-      <c r="E152">
+      <c r="D152">
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C153">
         <v>3</v>
       </c>
-      <c r="E153">
+      <c r="D153">
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C154">
         <v>4</v>
       </c>
-      <c r="E154">
+      <c r="D154">
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
-      <c r="E155">
+      <c r="D155">
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
-      <c r="E156">
+      <c r="D156">
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C157">
         <v>3</v>
       </c>
-      <c r="E157">
+      <c r="D157">
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C158">
         <v>4</v>
       </c>
-      <c r="E158">
+      <c r="D158">
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C159">
         <v>5</v>
       </c>
-      <c r="E159">
+      <c r="D159">
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C160">
         <v>6</v>
       </c>
-      <c r="E160">
+      <c r="D160">
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C161">
         <v>7</v>
       </c>
-      <c r="E161">
+      <c r="D161">
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C162">
         <v>8</v>
       </c>
-      <c r="E162">
+      <c r="D162">
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
-      <c r="E163">
+      <c r="D163">
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
-      <c r="E164">
+      <c r="D164">
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C165">
         <v>3</v>
       </c>
-      <c r="E165">
+      <c r="D165">
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C166">
         <v>4</v>
       </c>
-      <c r="E166">
+      <c r="D166">
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C167">
         <v>5</v>
       </c>
-      <c r="E167">
+      <c r="D167">
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C168">
         <v>6</v>
       </c>
-      <c r="E168">
+      <c r="D168">
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
-      <c r="E169">
+      <c r="D169">
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C170">
         <v>2</v>
       </c>
-      <c r="E170">
+      <c r="D170">
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C171">
         <v>3</v>
       </c>
-      <c r="E171">
+      <c r="D171">
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C172">
         <v>4</v>
       </c>
-      <c r="E172">
+      <c r="D172">
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
-      <c r="E173">
+      <c r="D173">
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C174">
         <v>2</v>
       </c>
-      <c r="E174">
+      <c r="D174">
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C175">
         <v>3</v>
       </c>
-      <c r="E175">
+      <c r="D175">
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C176">
         <v>4</v>
       </c>
-      <c r="E176">
+      <c r="D176">
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C177">
         <v>5</v>
       </c>
-      <c r="E177">
+      <c r="D177">
         <v>43</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C178">
         <v>6</v>
       </c>
-      <c r="E178">
+      <c r="D178">
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C179">
         <v>7</v>
       </c>
-      <c r="E179">
+      <c r="D179">
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
-      <c r="E180">
+      <c r="D180">
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C181">
         <v>2</v>
       </c>
-      <c r="E181">
+      <c r="D181">
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C182">
         <v>3</v>
       </c>
-      <c r="E182">
+      <c r="D182">
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
-      <c r="E183">
+      <c r="D183">
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
-      <c r="E184">
+      <c r="D184">
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C185">
         <v>3</v>
       </c>
-      <c r="E185">
+      <c r="D185">
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C186">
         <v>4</v>
       </c>
-      <c r="E186">
+      <c r="D186">
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
-      <c r="E187">
+      <c r="D187">
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C188">
         <v>2</v>
       </c>
-      <c r="E188">
+      <c r="D188">
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C189">
         <v>3</v>
       </c>
-      <c r="E189">
+      <c r="D189">
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C190">
         <v>4</v>
       </c>
-      <c r="E190">
+      <c r="D190">
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
-      <c r="E191">
+      <c r="D191">
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
-      <c r="E192">
+      <c r="D192">
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C193">
         <v>3</v>
       </c>
-      <c r="E193">
+      <c r="D193">
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C194">
         <v>4</v>
       </c>
-      <c r="E194">
+      <c r="D194">
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C195">
         <v>5</v>
       </c>
-      <c r="E195">
+      <c r="D195">
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
-      <c r="E196">
+      <c r="D196">
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C197">
         <v>2</v>
       </c>
-      <c r="E197">
+      <c r="D197">
         <v>48</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C198">
         <v>3</v>
       </c>
-      <c r="E198">
+      <c r="D198">
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C199">
         <v>4</v>
       </c>
-      <c r="E199">
+      <c r="D199">
         <v>48</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C200">
         <v>5</v>
       </c>
-      <c r="E200">
+      <c r="D200">
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C201">
         <v>6</v>
       </c>
-      <c r="E201">
+      <c r="D201">
         <v>48</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
-      <c r="E202">
+      <c r="D202">
         <v>49</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C203">
         <v>2</v>
       </c>
-      <c r="E203">
+      <c r="D203">
         <v>49</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C204">
         <v>3</v>
       </c>
-      <c r="E204">
+      <c r="D204">
         <v>49</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C205">
         <v>4</v>
       </c>
-      <c r="E205">
+      <c r="D205">
         <v>49</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
-      <c r="E206">
+      <c r="D206">
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C207">
         <v>2</v>
       </c>
-      <c r="E207">
+      <c r="D207">
         <v>50</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C208">
         <v>3</v>
       </c>
-      <c r="E208">
+      <c r="D208">
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
-      <c r="E209">
+      <c r="D209">
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C210">
         <v>2</v>
       </c>
-      <c r="E210">
+      <c r="D210">
         <v>51</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C211">
         <v>3</v>
       </c>
-      <c r="E211">
+      <c r="D211">
         <v>51</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C212">
         <v>4</v>
       </c>
-      <c r="E212">
+      <c r="D212">
         <v>51</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C213">
         <v>5</v>
       </c>
-      <c r="E213">
+      <c r="D213">
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C214">
         <v>6</v>
       </c>
-      <c r="E214">
+      <c r="D214">
         <v>51</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C215">
         <v>7</v>
       </c>
-      <c r="E215">
+      <c r="D215">
         <v>51</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C216">
         <v>8</v>
       </c>
-      <c r="E216">
+      <c r="D216">
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
-      <c r="E217">
+      <c r="D217">
         <v>52</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
-      <c r="E218">
+      <c r="D218">
         <v>52</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C219">
         <v>3</v>
       </c>
-      <c r="E219">
+      <c r="D219">
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C220">
         <v>4</v>
       </c>
-      <c r="E220">
+      <c r="D220">
         <v>52</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C221" s="5">
         <v>1</v>
       </c>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5">
+      <c r="D221" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C222" s="5">
         <v>2</v>
       </c>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5">
+      <c r="D222" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C223" s="5">
         <v>1</v>
       </c>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5">
+      <c r="D223" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C224" s="5">
         <v>2</v>
       </c>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5">
+      <c r="D224" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C225" s="5">
         <v>3</v>
       </c>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5">
+      <c r="D225" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C226" s="5">
         <v>4</v>
       </c>
-      <c r="D226" s="5"/>
-      <c r="E226" s="5">
+      <c r="D226" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C227" s="5">
         <v>5</v>
       </c>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5">
+      <c r="D227" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C228" s="5">
         <v>6</v>
       </c>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5">
+      <c r="D228" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C229" s="5">
         <v>7</v>
       </c>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5">
+      <c r="D229" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C230" s="5">
         <v>8</v>
       </c>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5">
+      <c r="D230" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C231" s="5">
         <v>1</v>
       </c>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5">
+      <c r="D231" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C232" s="5">
         <v>2</v>
       </c>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5">
+      <c r="D232" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C233" s="5">
         <v>3</v>
       </c>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5">
+      <c r="D233" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C234" s="5">
         <v>4</v>
       </c>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5">
+      <c r="D234" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C235" s="5">
         <v>5</v>
       </c>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5">
+      <c r="D235" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C236" s="5">
         <v>6</v>
       </c>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5">
+      <c r="D236" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C237" s="5">
         <v>7</v>
       </c>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5">
+      <c r="D237" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
-      <c r="E238" s="5">
+      <c r="D238" s="5">
         <v>56</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
-      <c r="E239" s="5">
+      <c r="D239" s="5">
         <v>56</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C240">
         <v>3</v>
       </c>
-      <c r="E240" s="5">
+      <c r="D240" s="5">
         <v>56</v>
       </c>
     </row>
@@ -6701,12 +6794,12 @@
         <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C241">
         <v>4</v>
       </c>
-      <c r="E241" s="5">
+      <c r="D241" s="5">
         <v>56</v>
       </c>
     </row>
@@ -6715,12 +6808,12 @@
         <v>241</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C242">
         <v>5</v>
       </c>
-      <c r="E242" s="5">
+      <c r="D242" s="5">
         <v>56</v>
       </c>
     </row>
@@ -6729,12 +6822,12 @@
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C243">
         <v>6</v>
       </c>
-      <c r="E243" s="5">
+      <c r="D243" s="5">
         <v>56</v>
       </c>
     </row>
@@ -6743,12 +6836,12 @@
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C244">
         <v>7</v>
       </c>
-      <c r="E244" s="5">
+      <c r="D244" s="5">
         <v>56</v>
       </c>
     </row>
@@ -6757,12 +6850,12 @@
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
-      <c r="E245" s="5">
+      <c r="D245" s="5">
         <v>57</v>
       </c>
     </row>
@@ -6771,12 +6864,12 @@
         <v>245</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
-      <c r="E246" s="5">
+      <c r="D246" s="5">
         <v>57</v>
       </c>
     </row>
@@ -6785,12 +6878,12 @@
         <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C247">
         <v>3</v>
       </c>
-      <c r="E247" s="5">
+      <c r="D247" s="5">
         <v>57</v>
       </c>
     </row>
@@ -6799,12 +6892,12 @@
         <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
-      <c r="E248" s="5">
+      <c r="D248" s="5">
         <v>58</v>
       </c>
     </row>
@@ -6813,12 +6906,12 @@
         <v>248</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
-      <c r="E249" s="5">
+      <c r="D249" s="5">
         <v>58</v>
       </c>
     </row>
@@ -6827,12 +6920,12 @@
         <v>249</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C250">
         <v>3</v>
       </c>
-      <c r="E250" s="5">
+      <c r="D250" s="5">
         <v>58</v>
       </c>
     </row>
@@ -6841,12 +6934,12 @@
         <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C251">
         <v>4</v>
       </c>
-      <c r="E251" s="5">
+      <c r="D251" s="5">
         <v>58</v>
       </c>
     </row>
